--- a/Sufficient data/consolidated_forecast.xlsx
+++ b/Sufficient data/consolidated_forecast.xlsx
@@ -1131,27 +1131,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.7683321647043484</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -1166,27 +1166,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.76837355863435</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -1201,27 +1201,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0.7683735512381681</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -1236,27 +1236,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0.7683735512394896</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -1271,27 +1271,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0.7683735512394894</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -1306,27 +1306,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0.7683735512394894</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -1341,27 +1341,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.7683735512394894</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -1376,27 +1376,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.7683735512394894</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -1411,27 +1411,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.7683735512394894</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -1446,27 +1446,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.7683735512394894</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -1481,27 +1481,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0.7683735512394894</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -1516,27 +1516,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0.7683735512394894</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -1551,27 +1551,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.7683735512394894</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -1586,27 +1586,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.7683735512394894</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -1621,27 +1621,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.7683735512394894</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1656,27 +1656,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.7683735512394894</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>GP-AG70S2TB</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1757,27 +1757,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.6319808736646892</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -1792,27 +1792,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.6249374765573843</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -1827,27 +1827,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.624802675295001</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -1862,27 +1862,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.6248000953779435</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -1897,27 +1897,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.6248000460017588</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -1932,27 +1932,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.6248000450567642</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -1967,27 +1967,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.6248000450386783</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -2002,27 +2002,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.6248000450383321</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -2037,27 +2037,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.6248000450383254</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -2072,27 +2072,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.6248000450383253</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -2107,27 +2107,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.6248000450383253</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -2142,27 +2142,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.6248000450383253</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -2177,27 +2177,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.6248000450383253</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -2212,27 +2212,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.6248000450383253</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -2247,27 +2247,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.6248000450383253</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -2282,27 +2282,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.6248000450383253</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>GP-ASM2NE6100TTTD</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
         <v>20</v>
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
         <v>23</v>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>21</v>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
         <v>27</v>
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
         <v>24</v>
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
         <v>25</v>
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>16</v>
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
         <v>6</v>
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>5</v>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
         <v>5</v>
@@ -3915,7 +3915,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
         <v>5</v>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>5</v>
@@ -4125,7 +4125,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
@@ -4887,27 +4887,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4.993597613432506</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v/>
       </c>
       <c r="G2" t="n">
-        <v>26</v>
+        <v/>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -4922,27 +4922,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>5.246680406970875</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v/>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -4957,27 +4957,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>5.259507011223667</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v/>
       </c>
       <c r="G4" t="n">
-        <v>23</v>
+        <v/>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -4992,27 +4992,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>5.260157082191976</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v/>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G5" t="n">
-        <v>16</v>
+        <v/>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -5027,27 +5027,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5.260190028734608</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -5062,27 +5062,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5.260191698513331</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v/>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v/>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -5097,27 +5097,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>5.260191783140147</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v/>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -5132,27 +5132,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>5.260191787429157</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -5167,27 +5167,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>97</v>
+        <v>5.260191787646531</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G10" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -5202,27 +5202,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>121</v>
+        <v>5.260191787657548</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v/>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="G11" t="n">
-        <v>16</v>
+        <v/>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -5237,27 +5237,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>5.260191787658107</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="G12" t="n">
-        <v>22</v>
+        <v/>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -5272,27 +5272,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.260191787658135</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v/>
       </c>
       <c r="G13" t="n">
-        <v>22</v>
+        <v/>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -5307,27 +5307,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5.260191787658137</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v/>
       </c>
       <c r="G14" t="n">
-        <v>22</v>
+        <v/>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -5342,27 +5342,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>5.260191787658137</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v/>
       </c>
       <c r="G15" t="n">
-        <v>23</v>
+        <v/>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -5377,27 +5377,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>160</v>
+        <v>5.260191787658137</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v/>
       </c>
       <c r="G16" t="n">
-        <v>24</v>
+        <v/>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -5412,27 +5412,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>158</v>
+        <v>5.260191787658137</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v/>
       </c>
       <c r="G17" t="n">
-        <v>23</v>
+        <v/>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>AG512K1TB</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -5513,27 +5513,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>12.80828521589888</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v/>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v/>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -5548,27 +5548,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>11.41545789608493</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v/>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v/>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v/>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -5583,27 +5583,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>11.04179177159732</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v/>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v/>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v/>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v/>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -5618,27 +5618,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>10.94154504998057</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v/>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v/>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -5653,27 +5653,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>10.91465097386198</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v/>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -5688,27 +5688,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>10.90743586180039</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v/>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -5723,27 +5723,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>10.90550019976717</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
+        <v/>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -5758,27 +5758,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>10.90498090256501</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v/>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -5793,27 +5793,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>10.904841586104</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v/>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v/>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -5828,27 +5828,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>10.90480421044277</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v/>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -5863,27 +5863,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>10.90479418334301</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v/>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -5898,27 +5898,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>10.90479149328413</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="G13" t="n">
-        <v>21</v>
+        <v/>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -5933,27 +5933,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>10.9047907715982</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v/>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="F14" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="G14" t="n">
-        <v>21</v>
+        <v/>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -5968,27 +5968,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>10.90479057798512</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="G15" t="n">
-        <v>21</v>
+        <v/>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -6003,27 +6003,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>10.90479052604283</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="G16" t="n">
-        <v>22</v>
+        <v/>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -6038,27 +6038,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>10.90479051210781</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v/>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v/>
       </c>
       <c r="G17" t="n">
-        <v>21</v>
+        <v/>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>AG512K2TB</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12.64547615237894</v>
+        <v>13.86431317613982</v>
       </c>
       <c r="D2" t="n">
         <v/>
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14.19592583181107</v>
+        <v>14.84740477550339</v>
       </c>
       <c r="D3" t="n">
         <v/>
@@ -6209,7 +6209,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14.55765976228205</v>
+        <v>14.97029778231694</v>
       </c>
       <c r="D4" t="n">
         <v/>
@@ -6244,7 +6244,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.64205555931424</v>
+        <v>14.98566022782401</v>
       </c>
       <c r="D5" t="n">
         <v/>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14.66174586192817</v>
+        <v>14.98758063597478</v>
       </c>
       <c r="D6" t="n">
         <v/>
@@ -6314,7 +6314,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.6663397875816</v>
+        <v>14.98782069980211</v>
       </c>
       <c r="D7" t="n">
         <v/>
@@ -6349,7 +6349,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.66741159197807</v>
+        <v>14.98785070938167</v>
       </c>
       <c r="D8" t="n">
         <v/>
@@ -6384,7 +6384,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.66766165363577</v>
+        <v>14.98785446077927</v>
       </c>
       <c r="D9" t="n">
         <v/>
@@ -6419,7 +6419,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14.66771999528175</v>
+        <v>14.98785492972899</v>
       </c>
       <c r="D10" t="n">
         <v/>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14.66773360691532</v>
+        <v>14.98785498835083</v>
       </c>
       <c r="D11" t="n">
         <v/>
@@ -6489,7 +6489,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>14.66773678263252</v>
+        <v>14.98785499567895</v>
       </c>
       <c r="D12" t="n">
         <v/>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14.66773752355606</v>
+        <v>14.98785499659502</v>
       </c>
       <c r="D13" t="n">
         <v/>
@@ -6559,7 +6559,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14.66773769642022</v>
+        <v>14.98785499670953</v>
       </c>
       <c r="D14" t="n">
         <v/>
@@ -6594,7 +6594,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14.66773773675099</v>
+        <v>14.98785499672385</v>
       </c>
       <c r="D15" t="n">
         <v/>
@@ -6629,7 +6629,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14.66773774616053</v>
+        <v>14.98785499672564</v>
       </c>
       <c r="D16" t="n">
         <v/>
@@ -6664,7 +6664,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14.66773774835586</v>
+        <v>14.98785499672586</v>
       </c>
       <c r="D17" t="n">
         <v/>
@@ -8017,7 +8017,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9999999998255773</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v/>
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v/>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v/>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v/>
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v/>
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v/>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v/>
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v/>
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v/>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v/>
@@ -8367,7 +8367,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v/>
@@ -8402,7 +8402,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v/>
@@ -8437,7 +8437,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v/>
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v/>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v/>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9999999998255772</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v/>
@@ -8643,27 +8643,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1.487876008160631</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -8678,27 +8678,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>1.411835410811456</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -8713,27 +8713,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>1.400544839509667</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -8748,27 +8748,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1.398868406067996</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -8783,27 +8783,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.398619487832662</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -8818,27 +8818,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.398582528245516</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v/>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -8853,27 +8853,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1.398577040455198</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -8888,27 +8888,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>1.398576225623515</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -8923,27 +8923,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>1.398576104636627</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -8958,27 +8958,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>1.398576086672394</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -8993,27 +8993,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.398576084005049</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -9028,27 +9028,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.398576083609</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -9063,27 +9063,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.398576083550194</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -9098,27 +9098,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1.398576083541462</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -9133,27 +9133,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>1.398576083540166</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -9168,27 +9168,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>1.398576083539973</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v/>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>GC-4XM2G5</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -13572,7 +13572,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.006129399808063</v>
+        <v>1.193817479531069</v>
       </c>
       <c r="D2" t="n">
         <v/>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.008429916977932</v>
+        <v>1.17471300663598</v>
       </c>
       <c r="D3" t="n">
         <v/>
@@ -13642,7 +13642,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.009293358654865</v>
+        <v>1.176596123089058</v>
       </c>
       <c r="D4" t="n">
         <v/>
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.009617429928589</v>
+        <v>1.176410505427931</v>
       </c>
       <c r="D5" t="n">
         <v/>
@@ -13712,7 +13712,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.009739061989282</v>
+        <v>1.176428801649636</v>
       </c>
       <c r="D6" t="n">
         <v/>
@@ -13747,7 +13747,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.00978471354617</v>
+        <v>1.176426998202019</v>
       </c>
       <c r="D7" t="n">
         <v/>
@@ -13782,7 +13782,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.009801847718152</v>
+        <v>1.176427175966771</v>
       </c>
       <c r="D8" t="n">
         <v/>
@@ -13817,7 +13817,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.009808278601773</v>
+        <v>1.176427158444606</v>
       </c>
       <c r="D9" t="n">
         <v/>
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.009810692273364</v>
+        <v>1.176427160171755</v>
       </c>
       <c r="D10" t="n">
         <v/>
@@ -13887,7 +13887,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.009811598184728</v>
+        <v>1.176427160001511</v>
       </c>
       <c r="D11" t="n">
         <v/>
@@ -13922,7 +13922,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.009811938195938</v>
+        <v>1.176427160018292</v>
       </c>
       <c r="D12" t="n">
         <v/>
@@ -13957,7 +13957,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.009812065810656</v>
+        <v>1.176427160016638</v>
       </c>
       <c r="D13" t="n">
         <v/>
@@ -13992,7 +13992,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.009812113707654</v>
+        <v>1.176427160016801</v>
       </c>
       <c r="D14" t="n">
         <v/>
@@ -14027,7 +14027,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.009812131684596</v>
+        <v>1.176427160016785</v>
       </c>
       <c r="D15" t="n">
         <v/>
@@ -14062,7 +14062,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.009812138431792</v>
+        <v>1.176427160016786</v>
       </c>
       <c r="D16" t="n">
         <v/>
@@ -14097,7 +14097,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.009812140964184</v>
+        <v>1.176427160016786</v>
       </c>
       <c r="D17" t="n">
         <v/>
@@ -14198,27 +14198,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8.69913882646866</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -14233,27 +14233,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>11.84435667276102</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -14268,27 +14268,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13.32102338424199</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -14303,27 +14303,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>14.01431227021423</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -14338,27 +14338,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>14.33980852178922</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -14373,27 +14373,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.49262765957302</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -14408,27 +14408,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>14.56437560984889</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -14443,27 +14443,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>14.5980609744141</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -14478,27 +14478,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.61387611312578</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -14513,27 +14513,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>14.62130125504417</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -14548,27 +14548,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>14.62478732832582</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -14583,27 +14583,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>14.62642402524805</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -14618,27 +14618,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>14.6271924476531</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -14653,27 +14653,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>14.62755321877973</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -14688,27 +14688,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>14.62772259932479</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -14723,27 +14723,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>14.62780212278698</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>GP-ASM2NE6200TTTD</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -14824,27 +14824,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0.987721006578391</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -14859,27 +14859,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1.139508803019147</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -14894,27 +14894,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>1.116748738552666</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -14929,27 +14929,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.120161532905475</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -14964,27 +14964,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.119649795985234</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -14999,27 +14999,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.119726529198099</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -15034,27 +15034,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.119715023313486</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -15069,27 +15069,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.119716748581799</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -15104,27 +15104,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.119716489883676</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -15139,27 +15139,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.119716528674581</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -15174,27 +15174,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.119716522858017</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -15209,27 +15209,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>1.119716523730191</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -15244,27 +15244,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>1.119716523599411</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -15279,27 +15279,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1.119716523619021</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -15314,27 +15314,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.11971652361608</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -15349,27 +15349,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.119716523616521</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>G325E1TB</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -15450,7 +15450,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4550470053689365</v>
+        <v>0.4473706606389631</v>
       </c>
       <c r="D2" t="n">
         <v/>
@@ -15485,7 +15485,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.482857127051041</v>
+        <v>0.4942870026763226</v>
       </c>
       <c r="D3" t="n">
         <v/>
@@ -15520,7 +15520,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4814379168153086</v>
+        <v>0.4903039655963306</v>
       </c>
       <c r="D4" t="n">
         <v/>
@@ -15555,7 +15555,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4815103421615991</v>
+        <v>0.4906421118304927</v>
       </c>
       <c r="D5" t="n">
         <v/>
@@ -15590,7 +15590,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4815066461406339</v>
+        <v>0.4906134043709884</v>
       </c>
       <c r="D6" t="n">
         <v/>
@@ -15625,7 +15625,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4815068347565215</v>
+        <v>0.4906158415361789</v>
       </c>
       <c r="D7" t="n">
         <v/>
@@ -15660,7 +15660,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4815068251310476</v>
+        <v>0.4906156346291844</v>
       </c>
       <c r="D8" t="n">
         <v/>
@@ -15695,7 +15695,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4815068256222562</v>
+        <v>0.490615652194881</v>
       </c>
       <c r="D9" t="n">
         <v/>
@@ -15730,7 +15730,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4815068255971888</v>
+        <v>0.4906156507036134</v>
       </c>
       <c r="D10" t="n">
         <v/>
@@ -15765,7 +15765,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.481506825598468</v>
+        <v>0.4906156508302169</v>
       </c>
       <c r="D11" t="n">
         <v/>
@@ -15800,7 +15800,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4815068255984027</v>
+        <v>0.4906156508194687</v>
       </c>
       <c r="D12" t="n">
         <v/>
@@ -15835,7 +15835,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4815068255984061</v>
+        <v>0.4906156508203812</v>
       </c>
       <c r="D13" t="n">
         <v/>
@@ -15870,7 +15870,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4815068255984059</v>
+        <v>0.4906156508203037</v>
       </c>
       <c r="D14" t="n">
         <v/>
@@ -15905,7 +15905,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4815068255984059</v>
+        <v>0.4906156508203103</v>
       </c>
       <c r="D15" t="n">
         <v/>
@@ -15940,7 +15940,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4815068255984059</v>
+        <v>0.4906156508203097</v>
       </c>
       <c r="D16" t="n">
         <v/>
@@ -15975,7 +15975,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4815068255984059</v>
+        <v>0.4906156508203098</v>
       </c>
       <c r="D17" t="n">
         <v/>
@@ -16079,24 +16079,24 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -16114,24 +16114,24 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -16149,24 +16149,24 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -16184,24 +16184,24 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -16219,24 +16219,24 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -16254,24 +16254,24 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -16289,24 +16289,24 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -16324,24 +16324,24 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -16359,24 +16359,24 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -16394,24 +16394,24 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -16429,24 +16429,24 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -16464,24 +16464,24 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -16499,24 +16499,24 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -16534,24 +16534,24 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -16569,24 +16569,24 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -16604,24 +16604,24 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -16702,27 +16702,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.313287838466843</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -16737,27 +16737,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.545772190316897</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -16772,27 +16772,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.467065307167384</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -16807,27 +16807,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.4937112874487</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -16842,27 +16842,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.48469037038604</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -16877,27 +16877,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.487744374922269</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -16912,27 +16912,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1.486710450805405</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -16947,27 +16947,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.487060482728001</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -16982,27 +16982,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.486941980465758</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -17017,27 +17017,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.486982099052807</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -17052,27 +17052,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.486968517024951</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -17087,27 +17087,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.486973115179927</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -17122,27 +17122,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.486971558488289</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -17157,27 +17157,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1.486972085501595</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -17192,27 +17192,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.486971907082814</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -17227,27 +17227,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1.48697196748596</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>GP-AG70S1TB</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
